--- a/inputs/ROC15_ChemswithMC.xlsx
+++ b/inputs/ROC15_ChemswithMC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Silent Spring)\1. Central_Files\Articles_Abstracts\SSI-Articles\Updated breast cancer list 2021\code for github\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC33FCBF-794B-4247-B02A-B156CC020FDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09826B30-B4A5-4197-9941-19A03275499B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8220" windowHeight="4938" xr2:uid="{2037C51A-1340-41BC-8828-84CAFD02C596}"/>
+    <workbookView xWindow="-25605" yWindow="105" windowWidth="22320" windowHeight="14310" xr2:uid="{2037C51A-1340-41BC-8828-84CAFD02C596}"/>
   </bookViews>
   <sheets>
     <sheet name="ROC15" sheetId="2" r:id="rId1"/>
@@ -18,19 +18,29 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ROC14 - old'!$A$1:$E$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ROC15'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ROC15'!$A$1:$D$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="288">
   <si>
     <t>CAS</t>
   </si>
@@ -977,33 +987,18 @@
     <t>CASRN</t>
   </si>
   <si>
-    <t>Maybe</t>
-  </si>
-  <si>
     <t>Basic red 9</t>
   </si>
   <si>
     <t>569-61-9</t>
   </si>
   <si>
-    <t>"Other tumors possibly resulting from oral exposure were mammary-gland tumors in female rats"</t>
-  </si>
-  <si>
     <t>6459-94-5</t>
   </si>
   <si>
     <t>c.i. acid red 114</t>
   </si>
   <si>
-    <t>steroidal estrogens</t>
-  </si>
-  <si>
-    <t>listed as a group</t>
-  </si>
-  <si>
-    <t>basically says steroidal estrogens usually cause mammary tumors, but doesn't provide specific chems</t>
-  </si>
-  <si>
     <t>hydrazobenzene</t>
   </si>
   <si>
@@ -1041,6 +1036,39 @@
   </si>
   <si>
     <t>match to roc15</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Maybe steroidal estrogens - listed as group, basically says steroidal estrogens usually cause mammary tumors, but doesn't provide specific chems</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>equivocal</t>
+  </si>
+  <si>
+    <t>4‑Aminobiphenyl</t>
+  </si>
+  <si>
+    <t>o‑Aminoazotoluene</t>
+  </si>
+  <si>
+    <t>in hamsters</t>
+  </si>
+  <si>
+    <t>"Other tumors possibly resulting from oral exposure were mammary-gland tumors in female rats..."</t>
+  </si>
+  <si>
+    <t>notes that its dichlorohydride is available commercially, but studies don't specify so unclear which was tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increased FBA in Huff 1984 drinking water study; increased malignant tumors Conti 1988 inhalation; decreased adenocarcinoma in Cruzan 1998 study. Cruzan was longer than Conti w/ higher doses </t>
+  </si>
+  <si>
+    <t>Cited IARC 1995 to say wood dust extract induced mammary tumors, but subsequent IARC from 2012 concluded mammary tumors not induced, so left it off this list</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1199,6 +1227,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,680 +1565,926 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E0CC22-0C93-438C-B6E8-C6981AED9ACE}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.89453125" style="15" customWidth="1"/>
     <col min="2" max="2" width="38.26171875" customWidth="1"/>
-    <col min="5" max="5" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.9453125" customWidth="1"/>
+    <col min="5" max="5" width="20.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>259</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B38" s="7" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.7">
+      <c r="A48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
         <v>266</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C62" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" t="s">
         <v>267</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" t="s">
+        <v>279</v>
+      </c>
+      <c r="D65" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="19" t="s">
+      <c r="C67" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B55" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B56" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C69" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C77" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B59" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16.2" x14ac:dyDescent="0.7">
-      <c r="A63" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="15" t="s">
+      <c r="C79" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B76" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>129</v>
+      <c r="C80" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{0C05492B-57E3-4EAF-BEAC-6CDAC776E184}">
-    <sortState ref="A2:B12">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:D80" xr:uid="{32E0CC22-0C93-438C-B6E8-C6981AED9ACE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D80">
+      <sortCondition ref="B1:B80"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A68:B68">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2246,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -3473,7 +3748,7 @@
         <v>98-95-3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="19" t="s">
         <v>42</v>
       </c>
@@ -3497,12 +3772,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E80" xr:uid="{5841E1CA-C137-4231-815D-5D611746FB28}">
-    <sortState ref="A2:E80">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E80">
       <sortCondition ref="A1:A80"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inputs/ROC15_ChemswithMC.xlsx
+++ b/inputs/ROC15_ChemswithMC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Silent Spring)\1. Central_Files\Articles_Abstracts\SSI-Articles\Updated breast cancer list 2021\code for github\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64EE8DE-D1CE-40BE-B17D-A7F94D600104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E298FA3F-AA57-4AC7-8CE7-E094604D9B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25950" yWindow="60" windowWidth="15615" windowHeight="12450" xr2:uid="{2037C51A-1340-41BC-8828-84CAFD02C596}"/>
+    <workbookView xWindow="-18090" yWindow="5835" windowWidth="17535" windowHeight="12150" xr2:uid="{2037C51A-1340-41BC-8828-84CAFD02C596}"/>
   </bookViews>
   <sheets>
     <sheet name="ROC15" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ROC14 - old'!$A$1:$E$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ROC15'!$A$1:$D$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ROC15'!$A$1:$C$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="283">
   <si>
     <t>CAS</t>
   </si>
@@ -1041,9 +1041,6 @@
     <t>Call</t>
   </si>
   <si>
-    <t>Maybe steroidal estrogens - listed as group, basically says steroidal estrogens usually cause mammary tumors, but doesn't provide specific chems</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -1056,19 +1053,7 @@
     <t>o‑Aminoazotoluene</t>
   </si>
   <si>
-    <t>in hamsters</t>
-  </si>
-  <si>
-    <t>"Other tumors possibly resulting from oral exposure were mammary-gland tumors in female rats..."</t>
-  </si>
-  <si>
-    <t>notes that its dichlorohydride is available commercially, but studies don't specify so unclear which was tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increased FBA in Huff 1984 drinking water study; increased malignant tumors Conti 1988 inhalation; decreased adenocarcinoma in Cruzan 1998 study. Cruzan was longer than Conti w/ higher doses </t>
-  </si>
-  <si>
-    <t>Cited IARC 1995 to say wood dust extract induced mammary tumors, but subsequent IARC from 2012 concluded mammary tumors not induced, so left it off this list</t>
+    <t>propylene oxide</t>
   </si>
 </sst>
 </file>
@@ -1538,21 +1523,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E0CC22-0C93-438C-B6E8-C6981AED9ACE}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.89453125" style="9" customWidth="1"/>
     <col min="2" max="2" width="38.26171875" customWidth="1"/>
-    <col min="4" max="4" width="37.9453125" customWidth="1"/>
-    <col min="5" max="5" width="20.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>259</v>
       </c>
@@ -1562,11 +1545,8 @@
       <c r="C1" t="s">
         <v>277</v>
       </c>
-      <c r="E1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
         <v>240</v>
       </c>
@@ -1574,13 +1554,10 @@
         <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
         <v>96</v>
       </c>
@@ -1588,10 +1565,10 @@
         <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
         <v>92</v>
       </c>
@@ -1599,10 +1576,10 @@
         <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>257</v>
       </c>
@@ -1610,362 +1587,356 @@
         <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9" t="s">
-        <v>257</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="12" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12" t="s">
-        <v>145</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>265</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>83</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>118</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="12" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="12" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="12" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>281</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="12" t="s">
-        <v>178</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="15" t="s">
-        <v>175</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="9" t="s">
-        <v>4</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" t="s">
+        <v>260</v>
       </c>
       <c r="C31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>261</v>
-      </c>
-      <c r="B32" t="s">
-        <v>260</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="12" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="12" t="s">
-        <v>202</v>
+      <c r="A35" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="9" t="s">
-        <v>252</v>
+      <c r="A37" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C37" t="s">
         <v>279</v>
@@ -1973,479 +1944,462 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>72</v>
+      <c r="A39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>60</v>
+      <c r="A40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="12" t="s">
-        <v>107</v>
+      <c r="A43" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="15" t="s">
-        <v>103</v>
+      <c r="A44" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="12" t="s">
-        <v>205</v>
+      <c r="A45" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.7">
+      <c r="A46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.7">
-      <c r="A47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="12" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="12" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="12" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="12" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="C53" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="12" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="12" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>183</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="10" t="s">
-        <v>8</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C61" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C62" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B63" t="s">
-        <v>269</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C63" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C64" t="s">
-        <v>279</v>
-      </c>
-      <c r="D64" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B65" t="s">
-        <v>270</v>
-      </c>
-      <c r="C65" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" t="s">
-        <v>268</v>
-      </c>
-      <c r="C66" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C69" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="C70" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="12" t="s">
-        <v>225</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="9" t="s">
-        <v>228</v>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C73" t="s">
-        <v>280</v>
-      </c>
-      <c r="D73" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="12" t="s">
-        <v>231</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="C76" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D79" xr:uid="{32E0CC22-0C93-438C-B6E8-C6981AED9ACE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D79">
-      <sortCondition ref="B1:B79"/>
+  <autoFilter ref="A1:C78" xr:uid="{32E0CC22-0C93-438C-B6E8-C6981AED9ACE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C78">
+      <sortCondition ref="B1:B78"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A67:B67">
+  <conditionalFormatting sqref="A66:B66">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
